--- a/data/state_election_results/massachusetts_president.xlsx
+++ b/data/state_election_results/massachusetts_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F93C14-E4FB-1F44-AEBD-416536921F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AEF341-F352-A847-AB67-91CA007853A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17780" yWindow="4700" windowWidth="14160" windowHeight="14940" xr2:uid="{37EB5A0D-AA9E-124B-B994-7F742123B89B}"/>
   </bookViews>
@@ -39,18 +39,6 @@
     <t>county</t>
   </si>
   <si>
-    <t>biden_votes</t>
-  </si>
-  <si>
-    <t>biden_percent</t>
-  </si>
-  <si>
-    <t>trump_votes</t>
-  </si>
-  <si>
-    <t>trump_percent</t>
-  </si>
-  <si>
     <t>Plymouth</t>
   </si>
   <si>
@@ -91,6 +79,18 @@
   </si>
   <si>
     <t>Nantucket</t>
+  </si>
+  <si>
+    <t>biden.votes</t>
+  </si>
+  <si>
+    <t>biden.percent</t>
+  </si>
+  <si>
+    <t>trump.votes</t>
+  </si>
+  <si>
+    <t>trump.percent</t>
   </si>
 </sst>
 </file>
@@ -98,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -141,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,21 +469,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>171975</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>605810</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>150763</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>51168</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>125018</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>263146</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>62104</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>244404</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>29824</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>268587</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>90815</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>252661</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>9818</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>5234</v>
